--- a/publipostage2/0376kfa34/liste_essais_cliniques_identifies_0376kfa34.xlsx
+++ b/publipostage2/0376kfa34/liste_essais_cliniques_identifies_0376kfa34.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/0376kfa34/liste_essais_cliniques_identifies_0376kfa34.xlsx
+++ b/publipostage2/0376kfa34/liste_essais_cliniques_identifies_0376kfa34.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT03322319</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>acTive scrEening of cArdiac aMyloidosis in the Caribbean's</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>1</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -552,36 +562,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT02968875</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Alzheimer's Disease and Physiological, Cognitive Function and BDNF Levels of Plasma Adaptation After Exercise Training</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>MARAE</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -600,36 +615,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT02912546</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Évaluation en IRM (séquence ASL) de la Variation de Perfusion cérébrale liée à la Position Corporelle.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>PerfIRMAVC</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
         <v>1</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -648,28 +668,30 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT03427190</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Assessment of Preventive Efficacy of an Algorithm Taking Place After Suicide Attempts Among Attempters Admitted to Hospital in the French Overseas Territories</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>APSOM</t>
         </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -677,7 +699,10 @@
       <c r="K5" t="b">
         <v>1</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -696,36 +721,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT04605250</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Respiratory Variability for Respiratory Monitoring During the Postoperative Recovery Period</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>VariaRessPi</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -744,36 +774,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT04413890</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Administration of Prostaglandin Gel for Cervical Priming During Induction of Labour Every 12 Hours Versus 24 Hours: a Randomized Superiority Controlled Trial</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>GELFREQ</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -792,36 +827,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT05564546</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Impact of Hydrogen Sulfide on Lung Health: Study of Chronic Exposure of the Population Living on the Atlantic Coast and on the Caribbean Coast, in Martinique, During the Stranding Period and Outside the Stranding Period of Sargassum Seaweeds</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>SÉSAR</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>

--- a/publipostage2/0376kfa34/liste_essais_cliniques_identifies_0376kfa34.xlsx
+++ b/publipostage2/0376kfa34/liste_essais_cliniques_identifies_0376kfa34.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>⬛</t>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📘</t>
   </si>
   <si>
     <t>vert</t>
@@ -76,7 +76,7 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>résultat et / ou publication posté dans les 12 mois</t>

--- a/publipostage2/0376kfa34/liste_essais_cliniques_identifies_0376kfa34.xlsx
+++ b/publipostage2/0376kfa34/liste_essais_cliniques_identifies_0376kfa34.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📗</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📘</t>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
   </si>
   <si>
     <t>vert</t>

--- a/publipostage2/0376kfa34/liste_essais_cliniques_identifies_0376kfa34.xlsx
+++ b/publipostage2/0376kfa34/liste_essais_cliniques_identifies_0376kfa34.xlsx
@@ -76,19 +76,19 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>bleu</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
+    <t>noir</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
   </si>
   <si>
     <t>NCT03322319</t>

--- a/publipostage2/0376kfa34/liste_essais_cliniques_identifies_0376kfa34.xlsx
+++ b/publipostage2/0376kfa34/liste_essais_cliniques_identifies_0376kfa34.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>statut</t>
   </si>
   <si>
-    <t>statut_label</t>
-  </si>
-  <si>
     <t>statut_name</t>
   </si>
   <si>
@@ -43,52 +40,31 @@
     <t>acronym</t>
   </si>
   <si>
-    <t>results_1y</t>
-  </si>
-  <si>
-    <t>results_3y</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
     <t>intervention_type</t>
   </si>
   <si>
-    <t>✅</t>
-  </si>
-  <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>⚠️</t>
-  </si>
-  <si>
-    <t>vert</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>rouge</t>
-  </si>
-  <si>
-    <t>noir</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés</t>
-  </si>
-  <si>
-    <t>pas de résultat postés ni publiés</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1: résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>3: résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4: pas de résultats postés ni publiés</t>
   </si>
   <si>
     <t>NCT03322319</t>
@@ -536,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,259 +546,163 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>51</v>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I8" t="s">
         <v>43</v>
-      </c>
-      <c r="I7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/0376kfa34/liste_essais_cliniques_identifies_0376kfa34.xlsx
+++ b/publipostage2/0376kfa34/liste_essais_cliniques_identifies_0376kfa34.xlsx
@@ -55,16 +55,16 @@
     <t>4</t>
   </si>
   <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
   </si>
   <si>
     <t>NCT03322319</t>
